--- a/Book1tcsnew (1).xlsx
+++ b/Book1tcsnew (1).xlsx
@@ -143,9 +143,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -258,13 +255,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
